--- a/st-interp/2025_data_interpolation_comparison.xlsx
+++ b/st-interp/2025_data_interpolation_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smt3/Documents/GitHub/atomic-clock/st-interp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB58D536-6B28-7341-873D-FD5D28938163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD72A35-92AB-BC40-B08E-B13A41D49FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="900" windowWidth="28040" windowHeight="16940" xr2:uid="{A8975FA8-588C-2342-9420-A35ABBC5CCC5}"/>
   </bookViews>
@@ -128,11 +128,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0667619-43C7-CF49-9D55-95272F80C1E0}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,7 +482,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D1" t="s">
@@ -682,6 +685,24 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
+      <c r="D8" s="1">
+        <v>-1.2777E-16</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-1.2771000000000001E-16</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-1.2737000000000001E-16</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-1.2787999999999999E-16</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-1.2783E-16</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-1.2771000000000001E-16</v>
+      </c>
       <c r="J8">
         <v>30</v>
       </c>
@@ -696,11 +717,47 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
+      <c r="D9" s="1">
+        <v>-1.0285E-16</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-1.0290000000000001E-16</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-1.0249E-16</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-1.0269E-16</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-1.0302999999999999E-16</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-1.0313E-16</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>9</v>
       </c>
+      <c r="D10" s="1">
+        <v>-2.2016999999999999E-17</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-2.1999000000000001E-17</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-2.2067000000000001E-17</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-2.2086000000000001E-17</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-2.1784999999999999E-17</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-2.2119999999999999E-17</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
@@ -709,10 +766,46 @@
       <c r="C11" t="s">
         <v>6</v>
       </c>
+      <c r="D11" s="1">
+        <v>5.6837999999999998E-18</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5.6497999999999998E-18</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5.6635999999999997E-18</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5.6983999999999997E-18</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5.7007E-18</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5.7190999999999999E-18</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7.8980000000000007E-18</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7.8824000000000005E-18</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7.9087000000000001E-18</v>
+      </c>
+      <c r="G12" s="1">
+        <v>7.9367999999999992E-18</v>
+      </c>
+      <c r="H12" s="1">
+        <v>7.9142999999999996E-18</v>
+      </c>
+      <c r="I12" s="1">
+        <v>7.9441000000000007E-18</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -721,12 +814,24 @@
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="D13" s="3">
+        <v>4.2806000000000002E-18</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4.1362000000000004E-18</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4.2129000000000001E-18</v>
+      </c>
+      <c r="G13" s="3">
+        <v>4.4789000000000001E-18</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4.4714E-18</v>
+      </c>
+      <c r="I13" s="3">
+        <v>4.7142999999999996E-18</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -742,6 +847,24 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
+      <c r="D14" s="1">
+        <v>-1.2321000000000001E-16</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-1.2325000000000001E-16</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-1.2292000000000001E-16</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-1.2333E-16</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-1.2333E-16</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-1.2320000000000001E-16</v>
+      </c>
       <c r="J14">
         <v>30</v>
       </c>
@@ -756,11 +879,47 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
+      <c r="D15" s="1">
+        <v>-1.0669E-16</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-1.0666E-16</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-1.0641E-16</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-1.0695E-16</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-1.0597E-16</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-1.0688E-16</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>9</v>
       </c>
+      <c r="D16" s="1">
+        <v>-1.6246000000000001E-17</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-1.6300000000000001E-17</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-1.6310999999999999E-17</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-1.6123E-17</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-1.6273E-17</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-1.6427E-17</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
@@ -769,10 +928,46 @@
       <c r="C17" t="s">
         <v>6</v>
       </c>
+      <c r="D17" s="1">
+        <v>2.3761E-18</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.4047E-18</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.5726000000000001E-18</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2.3241999999999999E-18</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2.3426999999999999E-18</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2.5315E-18</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.9014999999999999E-18</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.9188000000000001E-18</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.0789000000000002E-18</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.8871999999999999E-18</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.8806999999999999E-18</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.9660000000000002E-18</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -781,12 +976,24 @@
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="D19" s="3">
+        <v>1.8430999999999998E-18</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1.8945999999999999E-18</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.8953999999999999E-18</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1.8073E-18</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1.8306000000000001E-18</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1.9498999999999999E-18</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -802,6 +1009,24 @@
       <c r="C20" t="s">
         <v>6</v>
       </c>
+      <c r="D20" s="1">
+        <v>-1.1443999999999999E-16</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-1.1445999999999999E-16</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-1.1434E-16</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-1.144E-16</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-1.1455000000000001E-16</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-1.1436E-16</v>
+      </c>
       <c r="J20">
         <v>30</v>
       </c>
@@ -816,11 +1041,47 @@
       <c r="C21" t="s">
         <v>8</v>
       </c>
+      <c r="D21" s="1">
+        <v>-1.0258999999999999E-16</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-1.0257999999999999E-16</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-1.0247E-16</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-1.0254E-16</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-1.0281E-16</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-1.0225E-16</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>9</v>
       </c>
+      <c r="D22" s="1">
+        <v>-1.0512000000000001E-17</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-1.0568E-17</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-1.0561E-17</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-1.0561E-17</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-1.034E-17</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-1.0633E-17</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
@@ -829,10 +1090,46 @@
       <c r="C23" t="s">
         <v>6</v>
       </c>
+      <c r="D23" s="1">
+        <v>2.5278000000000001E-18</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.4968000000000001E-18</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2.4783999999999998E-18</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2.5529999999999998E-18</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2.4922999999999998E-18</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2.5080000000000001E-18</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.6740999999999999E-18</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.6487E-18</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2.6454000000000002E-18</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2.7083000000000001E-18</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2.6272999999999999E-18</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2.7834000000000001E-18</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -841,12 +1138,24 @@
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="D25" s="3">
+        <v>2.3746000000000001E-18</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.3856999999999999E-18</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2.3658999999999999E-18</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2.4226000000000001E-18</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2.2926E-18</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2.4458999999999998E-18</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -862,6 +1171,24 @@
       <c r="C26" t="s">
         <v>6</v>
       </c>
+      <c r="D26" s="1">
+        <v>-1.1917E-16</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-1.191E-16</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-1.1889999999999999E-16</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-1.1916E-16</v>
+      </c>
+      <c r="H26" s="1">
+        <v>-1.1919E-16</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-1.1886E-16</v>
+      </c>
       <c r="J26">
         <v>30</v>
       </c>
@@ -876,11 +1203,47 @@
       <c r="C27" t="s">
         <v>8</v>
       </c>
+      <c r="D27" s="1">
+        <v>-1.0369E-16</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-1.0371E-16</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-1.0347E-16</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-1.0347999999999999E-16</v>
+      </c>
+      <c r="H27" s="1">
+        <v>-1.037E-16</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-1.0362999999999999E-16</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>9</v>
       </c>
+      <c r="D28" s="1">
+        <v>-1.5209E-17</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-1.5115999999999999E-17</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-1.5094E-17</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-1.5419000000000001E-17</v>
+      </c>
+      <c r="H28" s="1">
+        <v>-1.5208000000000001E-17</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-1.5051000000000001E-17</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
@@ -889,10 +1252,46 @@
       <c r="C29" t="s">
         <v>6</v>
       </c>
+      <c r="D29" s="1">
+        <v>7.6507999999999994E-18</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7.5831999999999998E-18</v>
+      </c>
+      <c r="F29" s="1">
+        <v>7.6431000000000006E-18</v>
+      </c>
+      <c r="G29" s="1">
+        <v>7.7031000000000002E-18</v>
+      </c>
+      <c r="H29" s="1">
+        <v>7.6479000000000007E-18</v>
+      </c>
+      <c r="I29" s="1">
+        <v>7.6685000000000004E-18</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>8</v>
+      </c>
+      <c r="D30" s="1">
+        <v>6.7303000000000003E-18</v>
+      </c>
+      <c r="E30" s="1">
+        <v>6.6856999999999998E-18</v>
+      </c>
+      <c r="F30" s="1">
+        <v>6.6842000000000002E-18</v>
+      </c>
+      <c r="G30" s="1">
+        <v>6.8107000000000003E-18</v>
+      </c>
+      <c r="H30" s="1">
+        <v>6.7191999999999997E-18</v>
+      </c>
+      <c r="I30" s="1">
+        <v>6.8178E-18</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -901,12 +1300,24 @@
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="D31" s="3">
+        <v>7.6456000000000004E-18</v>
+      </c>
+      <c r="E31" s="3">
+        <v>7.6479000000000007E-18</v>
+      </c>
+      <c r="F31" s="3">
+        <v>7.6266999999999996E-18</v>
+      </c>
+      <c r="G31" s="3">
+        <v>7.7057000000000005E-18</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7.6497000000000002E-18</v>
+      </c>
+      <c r="I31" s="3">
+        <v>7.7400999999999994E-18</v>
+      </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -922,6 +1333,24 @@
       <c r="C32" t="s">
         <v>6</v>
       </c>
+      <c r="D32" s="1">
+        <v>-1.2091E-16</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-1.2102999999999999E-16</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-1.2088E-16</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-1.2082000000000001E-16</v>
+      </c>
+      <c r="H32" s="1">
+        <v>-1.2096E-16</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-1.2067E-16</v>
+      </c>
       <c r="J32">
         <v>30</v>
       </c>
@@ -936,11 +1365,47 @@
       <c r="C33" t="s">
         <v>8</v>
       </c>
+      <c r="D33" s="1">
+        <v>-1.0417E-16</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-1.0389E-16</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-1.0393999999999999E-16</v>
+      </c>
+      <c r="G33" s="1">
+        <v>-1.0443E-16</v>
+      </c>
+      <c r="H33" s="1">
+        <v>-1.0457E-16</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-1.0408999999999999E-16</v>
+      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>9</v>
       </c>
+      <c r="D34" s="1">
+        <v>-1.4393999999999999E-17</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-1.4569999999999999E-17</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-1.4226000000000001E-17</v>
+      </c>
+      <c r="G34" s="1">
+        <v>-1.4252000000000001E-17</v>
+      </c>
+      <c r="H34" s="1">
+        <v>-1.4327000000000001E-17</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-1.4432000000000001E-17</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
@@ -949,10 +1414,46 @@
       <c r="C35" t="s">
         <v>6</v>
       </c>
+      <c r="D35" s="1">
+        <v>7.7429000000000006E-18</v>
+      </c>
+      <c r="E35" s="1">
+        <v>7.7075E-18</v>
+      </c>
+      <c r="F35" s="1">
+        <v>7.7861999999999994E-18</v>
+      </c>
+      <c r="G35" s="1">
+        <v>7.6859000000000001E-18</v>
+      </c>
+      <c r="H35" s="1">
+        <v>7.7267000000000006E-18</v>
+      </c>
+      <c r="I35" s="1">
+        <v>7.8847999999999998E-18</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>8</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.6476999999999999E-18</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1.6159E-18</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1.5904999999999999E-18</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1.6623999999999999E-18</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1.6157999999999999E-18</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1.9969000000000001E-18</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -961,12 +1462,24 @@
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="D37" s="3">
+        <v>1.1114E-17</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1.0948999999999999E-17</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1.0658E-17</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1.1076E-17</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1.1021E-17</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1.1398000000000001E-17</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -982,6 +1495,24 @@
       <c r="C38" t="s">
         <v>6</v>
       </c>
+      <c r="D38" s="1">
+        <v>-1.263E-16</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-1.2623000000000001E-16</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-1.2607E-16</v>
+      </c>
+      <c r="G38" s="1">
+        <v>-1.2620000000000001E-16</v>
+      </c>
+      <c r="H38" s="1">
+        <v>-1.2628E-16</v>
+      </c>
+      <c r="I38" s="1">
+        <v>-1.2601E-16</v>
+      </c>
       <c r="J38">
         <v>30</v>
       </c>
@@ -996,11 +1527,47 @@
       <c r="C39" t="s">
         <v>8</v>
       </c>
+      <c r="D39" s="1">
+        <v>-1.0295E-16</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-1.0294E-16</v>
+      </c>
+      <c r="F39" s="1">
+        <v>-1.0256E-16</v>
+      </c>
+      <c r="G39" s="1">
+        <v>-1.0294E-16</v>
+      </c>
+      <c r="H39" s="1">
+        <v>-1.0313E-16</v>
+      </c>
+      <c r="I39" s="1">
+        <v>-1.0257E-16</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>9</v>
       </c>
+      <c r="D40" s="1">
+        <v>-2.47E-17</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-2.4697E-17</v>
+      </c>
+      <c r="F40" s="1">
+        <v>-2.4704999999999999E-17</v>
+      </c>
+      <c r="G40" s="1">
+        <v>-2.4715000000000001E-17</v>
+      </c>
+      <c r="H40" s="1">
+        <v>-2.4545999999999999E-17</v>
+      </c>
+      <c r="I40" s="1">
+        <v>-2.4448000000000001E-17</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
@@ -1009,10 +1576,46 @@
       <c r="C41" t="s">
         <v>6</v>
       </c>
+      <c r="D41" s="1">
+        <v>6.0301E-18</v>
+      </c>
+      <c r="E41" s="1">
+        <v>6.0869000000000003E-18</v>
+      </c>
+      <c r="F41" s="1">
+        <v>6.1008999999999996E-18</v>
+      </c>
+      <c r="G41" s="1">
+        <v>6.0023999999999997E-18</v>
+      </c>
+      <c r="H41" s="1">
+        <v>5.9389999999999998E-18</v>
+      </c>
+      <c r="I41" s="1">
+        <v>5.7802000000000003E-18</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>8</v>
+      </c>
+      <c r="D42" s="1">
+        <v>7.1629000000000006E-18</v>
+      </c>
+      <c r="E42" s="1">
+        <v>7.2462999999999997E-18</v>
+      </c>
+      <c r="F42" s="1">
+        <v>7.2483000000000002E-18</v>
+      </c>
+      <c r="G42" s="1">
+        <v>7.1393000000000002E-18</v>
+      </c>
+      <c r="H42" s="1">
+        <v>7.2087999999999997E-18</v>
+      </c>
+      <c r="I42" s="1">
+        <v>6.9271999999999996E-18</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -1021,12 +1624,24 @@
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="D43" s="3">
+        <v>1.4147000000000001E-18</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1.4262E-18</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1.4224E-18</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1.3936E-18</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1.5059999999999999E-18</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1.6287E-18</v>
+      </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -1042,6 +1657,24 @@
       <c r="C44" t="s">
         <v>6</v>
       </c>
+      <c r="D44" s="1">
+        <v>-1.2174000000000001E-16</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-1.2164999999999999E-16</v>
+      </c>
+      <c r="F44" s="1">
+        <v>-1.2116000000000001E-16</v>
+      </c>
+      <c r="G44" s="1">
+        <v>-1.2171000000000001E-16</v>
+      </c>
+      <c r="H44" s="1">
+        <v>-1.2182E-16</v>
+      </c>
+      <c r="I44" s="1">
+        <v>-1.2183E-16</v>
+      </c>
       <c r="J44">
         <v>30</v>
       </c>
@@ -1056,11 +1689,47 @@
       <c r="C45" t="s">
         <v>8</v>
       </c>
+      <c r="D45" s="1">
+        <v>-1.065E-16</v>
+      </c>
+      <c r="E45" s="1">
+        <v>-1.0638E-16</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-1.0597E-16</v>
+      </c>
+      <c r="G45" s="1">
+        <v>-1.0643E-16</v>
+      </c>
+      <c r="H45" s="1">
+        <v>-1.0665E-16</v>
+      </c>
+      <c r="I45" s="1">
+        <v>-1.0644E-16</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>9</v>
       </c>
+      <c r="D46" s="1">
+        <v>-1.4759E-17</v>
+      </c>
+      <c r="E46" s="1">
+        <v>-1.4752E-17</v>
+      </c>
+      <c r="F46" s="1">
+        <v>-1.474E-17</v>
+      </c>
+      <c r="G46" s="1">
+        <v>-1.474E-17</v>
+      </c>
+      <c r="H46" s="1">
+        <v>-1.4609999999999999E-17</v>
+      </c>
+      <c r="I46" s="1">
+        <v>-1.482E-17</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
@@ -1069,10 +1738,46 @@
       <c r="C47" t="s">
         <v>6</v>
       </c>
+      <c r="D47" s="1">
+        <v>5.4133000000000003E-18</v>
+      </c>
+      <c r="E47" s="1">
+        <v>5.3556999999999999E-18</v>
+      </c>
+      <c r="F47" s="1">
+        <v>5.2706000000000003E-18</v>
+      </c>
+      <c r="G47" s="1">
+        <v>5.5242999999999999E-18</v>
+      </c>
+      <c r="H47" s="1">
+        <v>5.4195000000000003E-18</v>
+      </c>
+      <c r="I47" s="1">
+        <v>5.2472000000000001E-18</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>8</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5.4069000000000001E-18</v>
+      </c>
+      <c r="E48" s="1">
+        <v>5.35E-18</v>
+      </c>
+      <c r="F48" s="1">
+        <v>5.2691E-18</v>
+      </c>
+      <c r="G48" s="1">
+        <v>5.5180999999999999E-18</v>
+      </c>
+      <c r="H48" s="1">
+        <v>5.4136999999999999E-18</v>
+      </c>
+      <c r="I48" s="1">
+        <v>5.2409000000000004E-18</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -1081,12 +1786,24 @@
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="D49" s="3">
+        <v>3.5600000000000003E-18</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3.5423E-18</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3.5361E-18</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3.5976999999999997E-18</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3.5048999999999997E-18</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3.5120000000000003E-18</v>
+      </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -1102,6 +1819,24 @@
       <c r="C50" t="s">
         <v>6</v>
       </c>
+      <c r="D50" s="1">
+        <v>-1.1856E-16</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-1.1874000000000001E-16</v>
+      </c>
+      <c r="F50" s="1">
+        <v>-1.1812000000000001E-16</v>
+      </c>
+      <c r="G50" s="1">
+        <v>-1.1861999999999999E-16</v>
+      </c>
+      <c r="H50" s="1">
+        <v>-1.1885E-16</v>
+      </c>
+      <c r="I50" s="1">
+        <v>-1.1786000000000001E-16</v>
+      </c>
       <c r="J50">
         <v>30</v>
       </c>
@@ -1116,11 +1851,47 @@
       <c r="C51" t="s">
         <v>8</v>
       </c>
+      <c r="D51" s="1">
+        <v>-1.0808E-16</v>
+      </c>
+      <c r="E51" s="1">
+        <v>-1.08E-16</v>
+      </c>
+      <c r="F51" s="1">
+        <v>-1.073E-16</v>
+      </c>
+      <c r="G51" s="1">
+        <v>-1.0826999999999999E-16</v>
+      </c>
+      <c r="H51" s="1">
+        <v>-1.0841E-16</v>
+      </c>
+      <c r="I51" s="1">
+        <v>-1.0765E-16</v>
+      </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>9</v>
       </c>
+      <c r="D52" s="1">
+        <v>-1.4916E-17</v>
+      </c>
+      <c r="E52" s="1">
+        <v>-1.5164E-17</v>
+      </c>
+      <c r="F52" s="1">
+        <v>-1.5250000000000001E-17</v>
+      </c>
+      <c r="G52" s="1">
+        <v>-1.4808999999999999E-17</v>
+      </c>
+      <c r="H52" s="1">
+        <v>-1.4838000000000001E-17</v>
+      </c>
+      <c r="I52" s="1">
+        <v>-1.5281999999999999E-17</v>
+      </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
@@ -1129,10 +1900,46 @@
       <c r="C53" t="s">
         <v>6</v>
       </c>
+      <c r="D53" s="1">
+        <v>7.5331999999999993E-18</v>
+      </c>
+      <c r="E53" s="1">
+        <v>7.5713999999999996E-18</v>
+      </c>
+      <c r="F53" s="1">
+        <v>7.3349999999999999E-18</v>
+      </c>
+      <c r="G53" s="1">
+        <v>7.5264000000000003E-18</v>
+      </c>
+      <c r="H53" s="1">
+        <v>7.5897999999999995E-18</v>
+      </c>
+      <c r="I53" s="1">
+        <v>7.1749000000000002E-18</v>
+      </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>8</v>
+      </c>
+      <c r="D54" s="1">
+        <v>7.0539999999999996E-18</v>
+      </c>
+      <c r="E54" s="1">
+        <v>7.1413000000000007E-18</v>
+      </c>
+      <c r="F54" s="1">
+        <v>6.8760000000000002E-18</v>
+      </c>
+      <c r="G54" s="1">
+        <v>7.0411000000000002E-18</v>
+      </c>
+      <c r="H54" s="1">
+        <v>7.1504000000000001E-18</v>
+      </c>
+      <c r="I54" s="1">
+        <v>6.8912E-18</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -1141,12 +1948,24 @@
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
+      <c r="D55" s="3">
+        <v>6.8614000000000003E-18</v>
+      </c>
+      <c r="E55" s="3">
+        <v>6.8243E-18</v>
+      </c>
+      <c r="F55" s="3">
+        <v>6.8207000000000002E-18</v>
+      </c>
+      <c r="G55" s="3">
+        <v>6.9457E-18</v>
+      </c>
+      <c r="H55" s="3">
+        <v>7.0090000000000002E-18</v>
+      </c>
+      <c r="I55" s="3">
+        <v>6.5768000000000003E-18</v>
+      </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -1162,6 +1981,24 @@
       <c r="C56" t="s">
         <v>6</v>
       </c>
+      <c r="D56" s="1">
+        <v>-1.2217E-16</v>
+      </c>
+      <c r="E56" s="1">
+        <v>-1.2216E-16</v>
+      </c>
+      <c r="F56" s="1">
+        <v>-1.2189999999999999E-16</v>
+      </c>
+      <c r="G56" s="1">
+        <v>-1.2203000000000001E-16</v>
+      </c>
+      <c r="H56" s="1">
+        <v>-1.2208E-16</v>
+      </c>
+      <c r="I56" s="1">
+        <v>-1.224E-16</v>
+      </c>
       <c r="J56">
         <v>30</v>
       </c>
@@ -1176,11 +2013,47 @@
       <c r="C57" t="s">
         <v>8</v>
       </c>
+      <c r="D57" s="1">
+        <v>-1.0695E-16</v>
+      </c>
+      <c r="E57" s="1">
+        <v>-1.0688E-16</v>
+      </c>
+      <c r="F57" s="1">
+        <v>-1.0665E-16</v>
+      </c>
+      <c r="G57" s="1">
+        <v>-1.0696E-16</v>
+      </c>
+      <c r="H57" s="1">
+        <v>-1.0705E-16</v>
+      </c>
+      <c r="I57" s="1">
+        <v>-1.0672E-16</v>
+      </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>9</v>
       </c>
+      <c r="D58" s="1">
+        <v>-1.5757999999999999E-17</v>
+      </c>
+      <c r="E58" s="1">
+        <v>-1.5803000000000001E-17</v>
+      </c>
+      <c r="F58" s="1">
+        <v>-1.5783E-17</v>
+      </c>
+      <c r="G58" s="1">
+        <v>-1.5729999999999999E-17</v>
+      </c>
+      <c r="H58" s="1">
+        <v>-1.5715999999999999E-17</v>
+      </c>
+      <c r="I58" s="1">
+        <v>-1.5996E-17</v>
+      </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
@@ -1189,10 +2062,46 @@
       <c r="C59" t="s">
         <v>6</v>
       </c>
+      <c r="D59" s="1">
+        <v>4.6200000000000001E-18</v>
+      </c>
+      <c r="E59" s="1">
+        <v>4.6523000000000003E-18</v>
+      </c>
+      <c r="F59" s="1">
+        <v>4.6675999999999997E-18</v>
+      </c>
+      <c r="G59" s="1">
+        <v>4.5425000000000003E-18</v>
+      </c>
+      <c r="H59" s="1">
+        <v>4.7406E-18</v>
+      </c>
+      <c r="I59" s="1">
+        <v>4.5658999999999997E-18</v>
+      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>8</v>
+      </c>
+      <c r="D60" s="1">
+        <v>4.5369999999999998E-18</v>
+      </c>
+      <c r="E60" s="1">
+        <v>4.5682999999999998E-18</v>
+      </c>
+      <c r="F60" s="1">
+        <v>4.5833999999999998E-18</v>
+      </c>
+      <c r="G60" s="1">
+        <v>4.4603999999999998E-18</v>
+      </c>
+      <c r="H60" s="1">
+        <v>4.6553000000000002E-18</v>
+      </c>
+      <c r="I60" s="1">
+        <v>4.4856999999999999E-18</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -1201,12 +2110,24 @@
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+      <c r="D61" s="3">
+        <v>4.8627000000000003E-18</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4.8158999999999999E-18</v>
+      </c>
+      <c r="F61" s="3">
+        <v>4.7821000000000002E-18</v>
+      </c>
+      <c r="G61" s="3">
+        <v>4.8793999999999996E-18</v>
+      </c>
+      <c r="H61" s="3">
+        <v>4.9076999999999997E-18</v>
+      </c>
+      <c r="I61" s="3">
+        <v>4.8670000000000004E-18</v>
+      </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -1222,6 +2143,24 @@
       <c r="C62" t="s">
         <v>6</v>
       </c>
+      <c r="D62" s="1">
+        <v>-1.2065E-16</v>
+      </c>
+      <c r="E62" s="1">
+        <v>-1.2070999999999999E-16</v>
+      </c>
+      <c r="F62" s="1">
+        <v>-1.2028E-16</v>
+      </c>
+      <c r="G62" s="1">
+        <v>-1.2063E-16</v>
+      </c>
+      <c r="H62" s="1">
+        <v>-1.2067E-16</v>
+      </c>
+      <c r="I62" s="1">
+        <v>-1.2037E-16</v>
+      </c>
       <c r="J62">
         <v>30</v>
       </c>
@@ -1236,11 +2175,47 @@
       <c r="C63" t="s">
         <v>8</v>
       </c>
+      <c r="D63" s="1">
+        <v>-1.076E-16</v>
+      </c>
+      <c r="E63" s="1">
+        <v>-1.0756E-16</v>
+      </c>
+      <c r="F63" s="1">
+        <v>-1.0731E-16</v>
+      </c>
+      <c r="G63" s="1">
+        <v>-1.0766999999999999E-16</v>
+      </c>
+      <c r="H63" s="1">
+        <v>-1.0766E-16</v>
+      </c>
+      <c r="I63" s="1">
+        <v>-1.0777E-16</v>
+      </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>9</v>
       </c>
+      <c r="D64" s="1">
+        <v>-1.0389000000000001E-17</v>
+      </c>
+      <c r="E64" s="1">
+        <v>-1.0486E-17</v>
+      </c>
+      <c r="F64" s="1">
+        <v>-1.0482E-17</v>
+      </c>
+      <c r="G64" s="1">
+        <v>-1.0261E-17</v>
+      </c>
+      <c r="H64" s="1">
+        <v>-1.0482E-17</v>
+      </c>
+      <c r="I64" s="1">
+        <v>-1.0000999999999999E-17</v>
+      </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
@@ -1249,10 +2224,46 @@
       <c r="C65" t="s">
         <v>6</v>
       </c>
+      <c r="D65" s="1">
+        <v>7.6520000000000006E-18</v>
+      </c>
+      <c r="E65" s="1">
+        <v>7.5798000000000003E-18</v>
+      </c>
+      <c r="F65" s="1">
+        <v>7.3541E-18</v>
+      </c>
+      <c r="G65" s="1">
+        <v>7.5240999999999999E-18</v>
+      </c>
+      <c r="H65" s="1">
+        <v>7.6885000000000003E-18</v>
+      </c>
+      <c r="I65" s="1">
+        <v>7.5178000000000002E-18</v>
+      </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>8</v>
+      </c>
+      <c r="D66" s="1">
+        <v>7.3380000000000006E-18</v>
+      </c>
+      <c r="E66" s="1">
+        <v>7.2472999999999999E-18</v>
+      </c>
+      <c r="F66" s="1">
+        <v>7.0186999999999995E-18</v>
+      </c>
+      <c r="G66" s="1">
+        <v>7.2286000000000002E-18</v>
+      </c>
+      <c r="H66" s="1">
+        <v>7.3679000000000007E-18</v>
+      </c>
+      <c r="I66" s="1">
+        <v>7.1469000000000001E-18</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -1261,12 +2272,24 @@
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
+      <c r="D67" s="3">
+        <v>7.5347999999999994E-18</v>
+      </c>
+      <c r="E67" s="3">
+        <v>7.4966000000000006E-18</v>
+      </c>
+      <c r="F67" s="3">
+        <v>7.4628000000000001E-18</v>
+      </c>
+      <c r="G67" s="3">
+        <v>7.5399999999999999E-18</v>
+      </c>
+      <c r="H67" s="3">
+        <v>7.5826E-18</v>
+      </c>
+      <c r="I67" s="3">
+        <v>7.5418999999999999E-18</v>
+      </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
